--- a/contents/schemas.xlsx
+++ b/contents/schemas.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Блок тестирования" sheetId="2" r:id="rId2"/>
+    <sheet name="Исправления" sheetId="3" r:id="rId2"/>
+    <sheet name="Блок тестирования" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>~70%</t>
   </si>
@@ -149,6 +150,15 @@
   </si>
   <si>
     <t>Далее</t>
+  </si>
+  <si>
+    <t>1. Сделать нормальную стартовую страницу;</t>
+  </si>
+  <si>
+    <t>2. Отменить назначение цвета текста в классе maintext.</t>
+  </si>
+  <si>
+    <t>3. Проконтролировать отсутствие кириллических симоволов в именах файлов</t>
   </si>
 </sst>
 </file>
@@ -467,6 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -482,7 +493,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1456,12 +1466,12 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -1478,10 +1488,10 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -1516,17 +1526,17 @@
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
       <c r="R12" s="5"/>
       <c r="S12" s="6"/>
     </row>
@@ -1538,15 +1548,15 @@
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
       <c r="R13" s="5"/>
       <c r="S13" s="6"/>
     </row>
@@ -1558,15 +1568,15 @@
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
       <c r="R14" s="5"/>
       <c r="S14" s="6"/>
     </row>
@@ -1578,15 +1588,15 @@
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
       <c r="R15" s="5"/>
       <c r="S15" s="6"/>
     </row>
@@ -1598,15 +1608,15 @@
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
       <c r="R16" s="5"/>
       <c r="S16" s="6"/>
     </row>
@@ -1618,15 +1628,15 @@
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
       <c r="R17" s="5"/>
       <c r="S17" s="6"/>
     </row>
@@ -1638,15 +1648,15 @@
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
       <c r="R18" s="5"/>
       <c r="S18" s="6"/>
     </row>
@@ -1658,15 +1668,15 @@
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
       <c r="R19" s="5"/>
       <c r="S19" s="6"/>
     </row>
@@ -1678,15 +1688,15 @@
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
       <c r="R20" s="5"/>
       <c r="S20" s="6"/>
     </row>
@@ -1698,15 +1708,15 @@
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
       <c r="R21" s="5"/>
       <c r="S21" s="6"/>
     </row>
@@ -1718,15 +1728,15 @@
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
       <c r="R22" s="5"/>
       <c r="S22" s="6"/>
     </row>
@@ -1802,9 +1812,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="O10" sqref="O10:Q11"/>
     </sheetView>
   </sheetViews>
@@ -1825,11 +1865,11 @@
       <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
       <c r="M4" t="s">
         <v>8</v>
       </c>
@@ -1840,9 +1880,9 @@
       <c r="Q4" s="31"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
       <c r="Q5" s="31"/>
@@ -1854,9 +1894,9 @@
       <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
       <c r="M6" t="s">
         <v>9</v>
       </c>
@@ -1865,9 +1905,9 @@
       <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
       <c r="O7" s="31"/>
       <c r="P7" s="31"/>
       <c r="Q7" s="31"/>
@@ -1879,9 +1919,9 @@
       <c r="F8" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
       <c r="M8" t="s">
         <v>10</v>
       </c>
@@ -1890,19 +1930,19 @@
       <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="E10" s="27" t="s">
+      <c r="B10" s="28"/>
+      <c r="E10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="28"/>
       <c r="H10" s="30" t="s">
         <v>38</v>
       </c>
@@ -1915,10 +1955,10 @@
       <c r="Q10" s="30"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
